--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahsan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD42A59-E21C-47C7-9EE5-4D47ADEEACC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D8563-8799-48C1-A667-0E91947F05C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F92CCDC7-5D3B-4A26-A4DA-3569B9F6E02C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Associate</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>yyyyyyyyyyyyyyy</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +230,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F43F1D8-49EA-483B-8B5A-3C1AA1415F8C}">
-  <dimension ref="A2:L11"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,6 +939,16 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
